--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.77689882938481</v>
+        <v>93.08856299999998</v>
       </c>
       <c r="H2">
-        <v>78.77689882938481</v>
+        <v>279.265689</v>
       </c>
       <c r="I2">
-        <v>0.1818145261443981</v>
+        <v>0.1947836339852847</v>
       </c>
       <c r="J2">
-        <v>0.1818145261443981</v>
+        <v>0.1947836339852847</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.22522549928054</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N2">
-        <v>2.22522549928054</v>
+        <v>132.145981</v>
       </c>
       <c r="O2">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P2">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q2">
-        <v>175.2963640293904</v>
+        <v>4100.4264925051</v>
       </c>
       <c r="R2">
-        <v>175.2963640293904</v>
+        <v>36903.8384325459</v>
       </c>
       <c r="S2">
-        <v>0.005576523645850168</v>
+        <v>0.0708261062397834</v>
       </c>
       <c r="T2">
-        <v>0.005576523645850168</v>
+        <v>0.0708261062397834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.77689882938481</v>
+        <v>93.08856299999998</v>
       </c>
       <c r="H3">
-        <v>78.77689882938481</v>
+        <v>279.265689</v>
       </c>
       <c r="I3">
-        <v>0.1818145261443981</v>
+        <v>0.1947836339852847</v>
       </c>
       <c r="J3">
-        <v>0.1818145261443981</v>
+        <v>0.1947836339852847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.32504872347729</v>
+        <v>2.226320666666667</v>
       </c>
       <c r="N3">
-        <v>70.32504872347729</v>
+        <v>6.678962</v>
       </c>
       <c r="O3">
-        <v>0.9693285032603981</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="P3">
-        <v>0.9693285032603981</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="Q3">
-        <v>5539.989248460928</v>
+        <v>207.244991637202</v>
       </c>
       <c r="R3">
-        <v>5539.989248460928</v>
+        <v>1865.204924734818</v>
       </c>
       <c r="S3">
-        <v>0.1762380024985479</v>
+        <v>0.003579714408291208</v>
       </c>
       <c r="T3">
-        <v>0.1762380024985479</v>
+        <v>0.003579714408291208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>152.114200083637</v>
+        <v>93.08856299999998</v>
       </c>
       <c r="H4">
-        <v>152.114200083637</v>
+        <v>279.265689</v>
       </c>
       <c r="I4">
-        <v>0.351074637603332</v>
+        <v>0.1947836339852847</v>
       </c>
       <c r="J4">
-        <v>0.351074637603332</v>
+        <v>0.1947836339852847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.22522549928054</v>
+        <v>74.86619966666667</v>
       </c>
       <c r="N4">
-        <v>2.22522549928054</v>
+        <v>224.598599</v>
       </c>
       <c r="O4">
-        <v>0.03067149673960189</v>
+        <v>0.6180078422107282</v>
       </c>
       <c r="P4">
-        <v>0.03067149673960189</v>
+        <v>0.6180078422107284</v>
       </c>
       <c r="Q4">
-        <v>338.4883968287711</v>
+        <v>6969.186944241078</v>
       </c>
       <c r="R4">
-        <v>338.4883968287711</v>
+        <v>62722.68249816971</v>
       </c>
       <c r="S4">
-        <v>0.01076798460260751</v>
+        <v>0.1203778133372101</v>
       </c>
       <c r="T4">
-        <v>0.01076798460260751</v>
+        <v>0.1203778133372101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.114200083637</v>
+        <v>153.2725883333333</v>
       </c>
       <c r="H5">
-        <v>152.114200083637</v>
+        <v>459.817765</v>
       </c>
       <c r="I5">
-        <v>0.351074637603332</v>
+        <v>0.320716001877666</v>
       </c>
       <c r="J5">
-        <v>0.351074637603332</v>
+        <v>0.3207160018776659</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>70.32504872347729</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N5">
-        <v>70.32504872347729</v>
+        <v>132.145981</v>
       </c>
       <c r="O5">
-        <v>0.9693285032603981</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P5">
-        <v>0.9693285032603981</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q5">
-        <v>10697.43853241455</v>
+        <v>6751.452181905831</v>
       </c>
       <c r="R5">
-        <v>10697.43853241455</v>
+        <v>60763.06963715247</v>
       </c>
       <c r="S5">
-        <v>0.3403066530007244</v>
+        <v>0.1166169105536977</v>
       </c>
       <c r="T5">
-        <v>0.3403066530007244</v>
+        <v>0.1166169105536977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.9592256369983</v>
+        <v>153.2725883333333</v>
       </c>
       <c r="H6">
-        <v>73.9592256369983</v>
+        <v>459.817765</v>
       </c>
       <c r="I6">
-        <v>0.1706954927525226</v>
+        <v>0.320716001877666</v>
       </c>
       <c r="J6">
-        <v>0.1706954927525226</v>
+        <v>0.3207160018776659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.22522549928054</v>
+        <v>2.226320666666667</v>
       </c>
       <c r="N6">
-        <v>2.22522549928054</v>
+        <v>6.678962</v>
       </c>
       <c r="O6">
-        <v>0.03067149673960189</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="P6">
-        <v>0.03067149673960189</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="Q6">
-        <v>164.5759547944917</v>
+        <v>341.2339310399922</v>
       </c>
       <c r="R6">
-        <v>164.5759547944917</v>
+        <v>3071.10537935993</v>
       </c>
       <c r="S6">
-        <v>0.005235486249423736</v>
+        <v>0.005894087041099994</v>
       </c>
       <c r="T6">
-        <v>0.005235486249423736</v>
+        <v>0.005894087041099993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.9592256369983</v>
+        <v>153.2725883333333</v>
       </c>
       <c r="H7">
-        <v>73.9592256369983</v>
+        <v>459.817765</v>
       </c>
       <c r="I7">
-        <v>0.1706954927525226</v>
+        <v>0.320716001877666</v>
       </c>
       <c r="J7">
-        <v>0.1706954927525226</v>
+        <v>0.3207160018776659</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.32504872347729</v>
+        <v>74.86619966666667</v>
       </c>
       <c r="N7">
-        <v>70.32504872347729</v>
+        <v>224.598599</v>
       </c>
       <c r="O7">
-        <v>0.9693285032603981</v>
+        <v>0.6180078422107282</v>
       </c>
       <c r="P7">
-        <v>0.9693285032603981</v>
+        <v>0.6180078422107284</v>
       </c>
       <c r="Q7">
-        <v>5201.186146472556</v>
+        <v>11474.93620159014</v>
       </c>
       <c r="R7">
-        <v>5201.186146472556</v>
+        <v>103274.4258143113</v>
       </c>
       <c r="S7">
-        <v>0.1654600065030989</v>
+        <v>0.1982050042828682</v>
       </c>
       <c r="T7">
-        <v>0.1654600065030989</v>
+        <v>0.1982050042828682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>128.43133066173</v>
+        <v>97.56176266666667</v>
       </c>
       <c r="H8">
-        <v>128.43133066173</v>
+        <v>292.685288</v>
       </c>
       <c r="I8">
-        <v>0.2964153434997473</v>
+        <v>0.2041436032289296</v>
       </c>
       <c r="J8">
-        <v>0.2964153434997473</v>
+        <v>0.2041436032289296</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.22522549928054</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N8">
-        <v>2.22522549928054</v>
+        <v>132.145981</v>
       </c>
       <c r="O8">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P8">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q8">
-        <v>285.7886718950122</v>
+        <v>4297.464945225282</v>
       </c>
       <c r="R8">
-        <v>285.7886718950122</v>
+        <v>38677.18450702753</v>
       </c>
       <c r="S8">
-        <v>0.009091502241720473</v>
+        <v>0.07422952449668675</v>
       </c>
       <c r="T8">
-        <v>0.009091502241720473</v>
+        <v>0.07422952449668675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>97.56176266666667</v>
+      </c>
+      <c r="H9">
+        <v>292.685288</v>
+      </c>
+      <c r="I9">
+        <v>0.2041436032289296</v>
+      </c>
+      <c r="J9">
+        <v>0.2041436032289296</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.226320666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.678962</v>
+      </c>
+      <c r="O9">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="P9">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="Q9">
+        <v>217.2037685012284</v>
+      </c>
+      <c r="R9">
+        <v>1954.833916511056</v>
+      </c>
+      <c r="S9">
+        <v>0.003751730999608985</v>
+      </c>
+      <c r="T9">
+        <v>0.003751730999608985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>128.43133066173</v>
-      </c>
-      <c r="H9">
-        <v>128.43133066173</v>
-      </c>
-      <c r="I9">
-        <v>0.2964153434997473</v>
-      </c>
-      <c r="J9">
-        <v>0.2964153434997473</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>70.32504872347729</v>
-      </c>
-      <c r="N9">
-        <v>70.32504872347729</v>
-      </c>
-      <c r="O9">
-        <v>0.9693285032603981</v>
-      </c>
-      <c r="P9">
-        <v>0.9693285032603981</v>
-      </c>
-      <c r="Q9">
-        <v>9031.939586407185</v>
-      </c>
-      <c r="R9">
-        <v>9031.939586407185</v>
-      </c>
-      <c r="S9">
-        <v>0.2873238412580268</v>
-      </c>
-      <c r="T9">
-        <v>0.2873238412580268</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>97.56176266666667</v>
+      </c>
+      <c r="H10">
+        <v>292.685288</v>
+      </c>
+      <c r="I10">
+        <v>0.2041436032289296</v>
+      </c>
+      <c r="J10">
+        <v>0.2041436032289296</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>74.86619966666667</v>
+      </c>
+      <c r="N10">
+        <v>224.598599</v>
+      </c>
+      <c r="O10">
+        <v>0.6180078422107282</v>
+      </c>
+      <c r="P10">
+        <v>0.6180078422107284</v>
+      </c>
+      <c r="Q10">
+        <v>7304.078403634613</v>
+      </c>
+      <c r="R10">
+        <v>65736.70563271153</v>
+      </c>
+      <c r="S10">
+        <v>0.1261623477326339</v>
+      </c>
+      <c r="T10">
+        <v>0.1261623477326339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>133.9846036666667</v>
+      </c>
+      <c r="H11">
+        <v>401.953811</v>
+      </c>
+      <c r="I11">
+        <v>0.2803567609081197</v>
+      </c>
+      <c r="J11">
+        <v>0.2803567609081197</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>44.04866033333334</v>
+      </c>
+      <c r="N11">
+        <v>132.145981</v>
+      </c>
+      <c r="O11">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="P11">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="Q11">
+        <v>5901.842296809288</v>
+      </c>
+      <c r="R11">
+        <v>53116.58067128359</v>
+      </c>
+      <c r="S11">
+        <v>0.1019417151577537</v>
+      </c>
+      <c r="T11">
+        <v>0.1019417151577537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>133.9846036666667</v>
+      </c>
+      <c r="H12">
+        <v>401.953811</v>
+      </c>
+      <c r="I12">
+        <v>0.2803567609081197</v>
+      </c>
+      <c r="J12">
+        <v>0.2803567609081197</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.226320666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.678962</v>
+      </c>
+      <c r="O12">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="P12">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="Q12">
+        <v>298.2926921582424</v>
+      </c>
+      <c r="R12">
+        <v>2684.634229424182</v>
+      </c>
+      <c r="S12">
+        <v>0.005152368892349899</v>
+      </c>
+      <c r="T12">
+        <v>0.005152368892349898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>133.9846036666667</v>
+      </c>
+      <c r="H13">
+        <v>401.953811</v>
+      </c>
+      <c r="I13">
+        <v>0.2803567609081197</v>
+      </c>
+      <c r="J13">
+        <v>0.2803567609081197</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>74.86619966666667</v>
+      </c>
+      <c r="N13">
+        <v>224.598599</v>
+      </c>
+      <c r="O13">
+        <v>0.6180078422107282</v>
+      </c>
+      <c r="P13">
+        <v>0.6180078422107284</v>
+      </c>
+      <c r="Q13">
+        <v>10030.91809036787</v>
+      </c>
+      <c r="R13">
+        <v>90278.26281331079</v>
+      </c>
+      <c r="S13">
+        <v>0.1732626768580161</v>
+      </c>
+      <c r="T13">
+        <v>0.1732626768580161</v>
       </c>
     </row>
   </sheetData>
